--- a/程序接口.xlsx
+++ b/程序接口.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Coues\iCloudDrive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Coues\Documents\20WinterAutoCar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D1F9E6-C8BA-475D-A146-C4F9385397FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A3194A-111E-4C44-B1AD-A93886530A22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4638" yWindow="2970" windowWidth="17280" windowHeight="9444" xr2:uid="{A576406E-A65A-418B-82B9-D1F1D5AEC490}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{A576406E-A65A-418B-82B9-D1F1D5AEC490}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>程序通讯接口</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Range</t>
   </si>
   <si>
-    <t>S_A*_B*_C*_D*_</t>
-  </si>
-  <si>
     <t>-100~100</t>
   </si>
   <si>
@@ -84,21 +81,9 @@
     <t>integer</t>
   </si>
   <si>
-    <t>P_X*_Y*_R*_</t>
-  </si>
-  <si>
-    <t>-60~60</t>
-  </si>
-  <si>
-    <t>float/two bit</t>
-  </si>
-  <si>
     <t>Halt</t>
   </si>
   <si>
-    <t>H_</t>
-  </si>
-  <si>
     <t>MKS DLC</t>
   </si>
   <si>
@@ -106,16 +91,84 @@
   </si>
   <si>
     <t>;p</t>
+  </si>
+  <si>
+    <t>-600~600</t>
+  </si>
+  <si>
+    <t>integer(step)</t>
+  </si>
+  <si>
+    <t>机械臂旋转升降归零</t>
+  </si>
+  <si>
+    <t>校验位：none</t>
+  </si>
+  <si>
+    <t>机械臂旋转至指定角度（初始位置为正朝前，也就是限位开关位置）</t>
+  </si>
+  <si>
+    <t>0~220</t>
+  </si>
+  <si>
+    <t>机械臂升降至指定高度（初始位置为最低处）</t>
+  </si>
+  <si>
+    <t>0~180</t>
+  </si>
+  <si>
+    <t>特殊位置</t>
+  </si>
+  <si>
+    <t>摄像头舵机旋转至指定角度（初始位置为最低处）</t>
+  </si>
+  <si>
+    <t>S_A*_B*_C*_D*_@</t>
+  </si>
+  <si>
+    <t>P_X*_Y*_R*_@</t>
+  </si>
+  <si>
+    <t>H_@</t>
+  </si>
+  <si>
+    <t>R_@</t>
+  </si>
+  <si>
+    <t>D_D*_@</t>
+  </si>
+  <si>
+    <t>A_H*_@</t>
+  </si>
+  <si>
+    <t>C_D*_@</t>
+  </si>
+  <si>
+    <t>Z_M*@</t>
+  </si>
+  <si>
+    <t>0/1</t>
+  </si>
+  <si>
+    <t>机械爪张开闭合0张开1闭合</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -138,15 +191,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -458,17 +514,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D4A447-1AD0-49B1-B7F0-B48BAF10591E}">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="10.5234375" customWidth="1"/>
     <col min="3" max="3" width="10.15625" customWidth="1"/>
-    <col min="4" max="4" width="25.62890625" customWidth="1"/>
+    <col min="4" max="4" width="58.734375" customWidth="1"/>
     <col min="5" max="5" width="17.26171875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -494,6 +550,9 @@
       <c r="M1" t="s">
         <v>3</v>
       </c>
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
@@ -514,13 +573,16 @@
       <c r="F3" t="s">
         <v>14</v>
       </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -528,14 +590,14 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -543,22 +605,22 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -566,16 +628,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -583,35 +645,141 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
       <c r="S8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="S11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{88C5120B-CF9C-4E43-8528-92833AEED778}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{9A66B07D-2E58-4C1B-850A-BF913E84B1E8}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{56D7C0D4-DC39-40A4-AB69-761043D3428E}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{B670E878-3D1F-44AC-B8C2-E5C59D886A1E}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{94ACEC3F-1160-47E2-902D-4FC4BB36707C}"/>
+    <hyperlink ref="E9" r:id="rId6" xr:uid="{16D7A79B-231F-4D21-9EDB-0A8FC608EF4F}"/>
+    <hyperlink ref="E10" r:id="rId7" xr:uid="{4FF033F0-135D-4ECD-8002-0CC3D88E69BE}"/>
+    <hyperlink ref="E11" r:id="rId8" xr:uid="{13B3FB7A-045F-4D7B-8A36-A0DCB3C31A79}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>